--- a/ProgressReports/EthanRaymond_ProgressReport.xlsx
+++ b/ProgressReports/EthanRaymond_ProgressReport.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27417"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethanraymond/Penn State University/Semester VIII/CMPSC 431W/Semester Project/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -27,11 +40,20 @@
   <si>
     <t>Meeting with Group</t>
   </si>
+  <si>
+    <t>Learning Java Sever Pages</t>
+  </si>
+  <si>
+    <t>Revising Phase I Document</t>
+  </si>
+  <si>
+    <t>Contribuiting to Phase I Document</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -225,12 +247,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -239,6 +260,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -302,9 +326,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -332,31 +356,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -384,23 +391,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -580,17 +570,17 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,161 +591,180 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>42389</v>
-      </c>
-      <c r="B2" s="4">
+    <row r="2" spans="1:3" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
+        <v>42755</v>
+      </c>
+      <c r="B2" s="13">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
+        <v>42757</v>
+      </c>
+      <c r="B3" s="14">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
+        <v>42767</v>
+      </c>
+      <c r="B4" s="14">
+        <f>0.3</f>
+        <v>0.3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
+        <v>42768</v>
+      </c>
+      <c r="B5" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProgressReports/EthanRaymond_ProgressReport.xlsx
+++ b/ProgressReports/EthanRaymond_ProgressReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethanraymond/Penn State University/Semester VIII/CMPSC 431W/Semester Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethanraymond/Penn State University/Semester VIII/CMPSC 431W/Semester Project/Project.git/ProgressReports/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -570,7 +570,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -637,9 +637,16 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="12">
+        <v>42771</v>
+      </c>
+      <c r="B6" s="14">
+        <f>0.3</f>
+        <v>0.3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>

--- a/ProgressReports/EthanRaymond_ProgressReport.xlsx
+++ b/ProgressReports/EthanRaymond_ProgressReport.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethanraymond/Penn State University/Semester VIII/CMPSC 431W/Semester Project/Project.git/ProgressReports/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14820"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="27315" windowHeight="14820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -48,12 +43,27 @@
   </si>
   <si>
     <t>Contribuiting to Phase I Document</t>
+  </si>
+  <si>
+    <t>Writing SQL for Sale Items</t>
+  </si>
+  <si>
+    <t>Writing SQL Scripts &amp; Compiling a list of Categories</t>
+  </si>
+  <si>
+    <t>Writing SQL script for creating Cateogory Table</t>
+  </si>
+  <si>
+    <t>Updated Cateogories Table</t>
+  </si>
+  <si>
+    <t>Editing &amp; Contributing to Report</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -247,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -263,6 +273,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,17 +581,17 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="53" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="57.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,7 +602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>42755</v>
       </c>
@@ -602,7 +613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>42757</v>
       </c>
@@ -613,7 +624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>42767</v>
       </c>
@@ -625,7 +636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>42768</v>
       </c>
@@ -636,139 +647,168 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>42771</v>
       </c>
-      <c r="B6" s="14">
-        <f>0.3</f>
-        <v>0.3</v>
+      <c r="B6" s="6">
+        <v>0.5</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>42791</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>42792</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>42793</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>42795</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>42796</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
       <c r="C31" s="10"/>
